--- a/config_ios提审/game_activity_config.xlsx
+++ b/config_ios提审/game_activity_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_ios提审\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -164,10 +164,6 @@
     <t>hot</t>
   </si>
   <si>
-    <t>"gift_one_yuan","panel3",</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>3ylb_dk_bg</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -179,6 +175,10 @@
   </si>
   <si>
     <t>gzyl_dk_bg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hall_gift",10</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -639,7 +639,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -827,7 +827,7 @@
         <v>25</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
@@ -992,7 +992,7 @@
         <v>41</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="V6" s="21"/>
       <c r="W6" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="X6" s="13" t="s">
         <v>42</v>
@@ -1016,7 +1016,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="20">
         <v>2</v>
@@ -1046,7 +1046,7 @@
         <v>41</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
@@ -1069,16 +1069,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1090,14 +1088,16 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1108,13 +1108,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1126,13 +1126,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_ios提审/game_activity_config.xlsx
+++ b/config_ios提审/game_activity_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>id|行号</t>
   </si>
@@ -105,80 +105,89 @@
     <t>normal</t>
   </si>
   <si>
+    <t>activity</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲爱的玩家朋友们：\n欢乐天天捕鱼将于2020年6月9日（周二）上午9点开启删档不付费测试，安卓手机可参与游戏，测试期间每天可领1000万游戏币，参与游戏排行榜更可领取丰厚奖励。\n测试期间如遇到任务问题或有更好的建议请加客服QQ：4008882620进行反馈。\n\n                                                                      官方运营团队\n                                                                      2019年6月3日</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>删档内测公告</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by_drb_cs","panel",</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_drb_cs</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家微信交流群</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>wxjl_dk_bg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三元礼包</t>
+  </si>
+  <si>
+    <t>yylb</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>3ylb_dk_bg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注公众号</t>
+  </si>
+  <si>
+    <t>重要公告：\n\n本平台倡导绿色休闲游戏，游戏中的金币为道具，不具有任何的实际货币价值，只限于玩家在游戏中使用。同时，本平台对玩家的金币不提供任何形式的官方回购、直接或间接兑换现金、兑换实物、相互转赠、转让等服务。\n\n在此，本平台明令禁止玩家之间任何形式的金币交易，金币转让等行为，坚决抵制低俗、不健康或涉及赌博等违法违规行为，以及其他违背游戏公平的作弊行为，一经核实，将被处以禁止登陆游戏、删除游戏数据等处罚。</t>
+  </si>
+  <si>
+    <t>gzyl_dk_bg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hall_gift",10</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>重要公告</t>
-  </si>
-  <si>
-    <t>activity</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>亲爱的玩家朋友们：\n欢乐天天捕鱼将于2020年6月9日（周二）上午9点开启删档不付费测试，安卓手机可参与游戏，测试期间每天可领1000万游戏币，参与游戏排行榜更可领取丰厚奖励。\n测试期间如遇到任务问题或有更好的建议请加客服QQ：4008882620进行反馈。\n\n                                                                      官方运营团队\n                                                                      2019年6月3日</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>删档内测公告</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by_drb_cs","panel",</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_drb_cs</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼排行榜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家微信交流群</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>wxjl_dk_bg</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>三元礼包</t>
-  </si>
-  <si>
-    <t>yylb</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>3ylb_dk_bg</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注公众号</t>
-  </si>
-  <si>
-    <t>重要公告：\n\n本平台倡导绿色休闲游戏，游戏中的金币为道具，不具有任何的实际货币价值，只限于玩家在游戏中使用。同时，本平台对玩家的金币不提供任何形式的官方回购、直接或间接兑换现金、兑换实物、相互转赠、转让等服务。\n\n在此，本平台明令禁止玩家之间任何形式的金币交易，金币转让等行为，坚决抵制低俗、不健康或涉及赌博等违法违规行为，以及其他违背游戏公平的作弊行为，一经核实，将被处以禁止登陆游戏、删除游戏数据等处罚。</t>
-  </si>
-  <si>
-    <t>gzyl_dk_bg</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"hall_gift",10</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎公告</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康游戏公告：\n\n抵制不良游戏，拒绝盗版游戏，注意自我保护，谨防上当受骗。\n\n适度游戏益脑，沉迷游戏伤身，合理安排时间，享受健康生活。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -633,13 +642,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -745,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
@@ -771,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
@@ -797,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D3" s="8">
         <v>2</v>
@@ -821,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
@@ -847,7 +856,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="14">
         <v>0</v>
@@ -882,16 +891,16 @@
         <v>22</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U4" s="14">
         <v>1</v>
       </c>
       <c r="W4" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X4" s="14" t="s">
         <v>23</v>
@@ -905,7 +914,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="14">
         <v>-1</v>
@@ -940,10 +949,10 @@
         <v>22</v>
       </c>
       <c r="P5" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U5" s="14">
         <v>1</v>
@@ -960,13 +969,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="D6" s="20">
-        <v>1</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>40</v>
       </c>
       <c r="F6" s="13">
         <v>0</v>
@@ -989,10 +998,10 @@
         <v>22</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
@@ -1002,10 +1011,10 @@
       </c>
       <c r="V6" s="21"/>
       <c r="W6" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X6" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1016,7 +1025,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="20">
         <v>2</v>
@@ -1043,10 +1052,10 @@
         <v>22</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
@@ -1057,6 +1066,56 @@
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
       <c r="X7" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="13">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="13">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1069,14 +1128,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1088,16 +1149,14 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1108,13 +1167,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1126,13 +1185,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
